--- a/Team-Data/2014-15/3-10-2014-15.xlsx
+++ b/Team-Data/2014-15/3-10-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>6.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -777,10 +844,10 @@
         <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
         <v>4</v>
@@ -789,10 +856,10 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
@@ -804,7 +871,7 @@
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
         <v>15</v>
@@ -816,7 +883,7 @@
         <v>16</v>
       </c>
       <c r="BB2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>-1.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF3" t="n">
         <v>20</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH3" t="n">
         <v>10</v>
@@ -965,7 +1032,7 @@
         <v>28</v>
       </c>
       <c r="AQ3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR3" t="n">
         <v>11</v>
@@ -974,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
@@ -986,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" t="n">
         <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="n">
-        <v>0.403</v>
+        <v>0.41</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1054,13 +1121,13 @@
         <v>0.447</v>
       </c>
       <c r="L4" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M4" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.327</v>
+        <v>0.326</v>
       </c>
       <c r="O4" t="n">
         <v>16.2</v>
@@ -1069,13 +1136,13 @@
         <v>21.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.743</v>
+        <v>0.745</v>
       </c>
       <c r="R4" t="n">
         <v>10.2</v>
       </c>
       <c r="S4" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T4" t="n">
         <v>42.1</v>
@@ -1087,7 +1154,7 @@
         <v>14.3</v>
       </c>
       <c r="W4" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
         <v>4.2</v>
@@ -1096,37 +1163,37 @@
         <v>4.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="n">
         <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.7</v>
+        <v>-3.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG4" t="n">
         <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI4" t="n">
         <v>20</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
         <v>17</v>
@@ -1141,13 +1208,13 @@
         <v>27</v>
       </c>
       <c r="AO4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>21</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>22</v>
       </c>
       <c r="AR4" t="n">
         <v>23</v>
@@ -1156,7 +1223,7 @@
         <v>18</v>
       </c>
       <c r="AT4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU4" t="n">
         <v>27</v>
@@ -1174,13 +1241,13 @@
         <v>9</v>
       </c>
       <c r="AZ4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA4" t="n">
         <v>19</v>
       </c>
       <c r="BB4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -1290,28 +1357,28 @@
         <v>-1.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
         <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
         <v>27</v>
@@ -1341,7 +1408,7 @@
         <v>10</v>
       </c>
       <c r="AU5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1353,13 +1420,13 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB5" t="n">
         <v>27</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>2.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>9</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1535,7 +1602,7 @@
         <v>2</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ6" t="n">
         <v>2</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -1576,58 +1643,58 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" t="n">
         <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>0.621</v>
+        <v>0.615</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J7" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L7" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M7" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.356</v>
+        <v>0.354</v>
       </c>
       <c r="O7" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P7" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R7" t="n">
         <v>11.3</v>
       </c>
       <c r="S7" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T7" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U7" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V7" t="n">
         <v>14</v>
@@ -1642,22 +1709,22 @@
         <v>4.7</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AA7" t="n">
         <v>20.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>102.9</v>
+        <v>102.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
         <v>9</v>
@@ -1669,13 +1736,13 @@
         <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1684,22 +1751,22 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO7" t="n">
         <v>5</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR7" t="n">
         <v>12</v>
       </c>
       <c r="AS7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT7" t="n">
         <v>17</v>
@@ -1708,10 +1775,10 @@
         <v>13</v>
       </c>
       <c r="AV7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX7" t="n">
         <v>26</v>
@@ -1720,16 +1787,16 @@
         <v>13</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA7" t="n">
         <v>9</v>
       </c>
       <c r="BB7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -1773,13 +1840,13 @@
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="J8" t="n">
         <v>85.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L8" t="n">
         <v>9.199999999999999</v>
@@ -1788,37 +1855,37 @@
         <v>26.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O8" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="P8" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.76</v>
+        <v>0.762</v>
       </c>
       <c r="R8" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
         <v>22.4</v>
       </c>
       <c r="V8" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="W8" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X8" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y8" t="n">
         <v>3.8</v>
@@ -1827,16 +1894,16 @@
         <v>19.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1851,13 +1918,13 @@
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ8" t="n">
         <v>9</v>
       </c>
       <c r="AK8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AL8" t="n">
         <v>7</v>
@@ -1869,22 +1936,22 @@
         <v>13</v>
       </c>
       <c r="AO8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP8" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR8" t="n">
         <v>20</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1896,7 +1963,7 @@
         <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1908,10 +1975,10 @@
         <v>3</v>
       </c>
       <c r="BB8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -2054,7 +2121,7 @@
         <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
         <v>24</v>
@@ -2072,7 +2139,7 @@
         <v>16</v>
       </c>
       <c r="AV9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW9" t="n">
         <v>17</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -2122,43 +2189,43 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" t="n">
-        <v>0.365</v>
+        <v>0.371</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J10" t="n">
-        <v>85.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="K10" t="n">
-        <v>0.426</v>
+        <v>0.427</v>
       </c>
       <c r="L10" t="n">
         <v>8.4</v>
       </c>
       <c r="M10" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>0.335</v>
+        <v>0.337</v>
       </c>
       <c r="O10" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P10" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q10" t="n">
         <v>0.707</v>
@@ -2170,37 +2237,37 @@
         <v>32.5</v>
       </c>
       <c r="T10" t="n">
-        <v>45.4</v>
+        <v>45.5</v>
       </c>
       <c r="U10" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V10" t="n">
         <v>13.8</v>
       </c>
       <c r="W10" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X10" t="n">
         <v>4.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,7 +2279,7 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
@@ -2221,7 +2288,7 @@
         <v>7</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL10" t="n">
         <v>10</v>
@@ -2230,10 +2297,10 @@
         <v>10</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP10" t="n">
         <v>14</v>
@@ -2245,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
         <v>4</v>
@@ -2260,7 +2327,7 @@
         <v>15</v>
       </c>
       <c r="AX10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
         <v>18</v>
@@ -2269,7 +2336,7 @@
         <v>9</v>
       </c>
       <c r="BA10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>10.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2415,13 +2482,13 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
         <v>24</v>
       </c>
       <c r="AQ11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR11" t="n">
         <v>22</v>
@@ -2448,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="AZ11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA11" t="n">
         <v>27</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" t="n">
         <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>0.677</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J12" t="n">
-        <v>84.40000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="K12" t="n">
         <v>0.439</v>
@@ -2513,25 +2580,25 @@
         <v>11.6</v>
       </c>
       <c r="M12" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O12" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.722</v>
+        <v>0.72</v>
       </c>
       <c r="R12" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S12" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T12" t="n">
         <v>43.8</v>
@@ -2549,22 +2616,22 @@
         <v>4.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2576,13 +2643,13 @@
         <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>19</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
@@ -2597,10 +2664,10 @@
         <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>27</v>
@@ -2609,7 +2676,7 @@
         <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT12" t="n">
         <v>13</v>
@@ -2624,10 +2691,10 @@
         <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -2668,46 +2735,46 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" t="n">
         <v>34</v>
       </c>
       <c r="G13" t="n">
-        <v>0.46</v>
+        <v>0.452</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J13" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L13" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="M13" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.339</v>
+        <v>0.335</v>
       </c>
       <c r="O13" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P13" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R13" t="n">
         <v>10.6</v>
@@ -2716,10 +2783,10 @@
         <v>34.5</v>
       </c>
       <c r="T13" t="n">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="U13" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="V13" t="n">
         <v>14.1</v>
@@ -2731,22 +2798,22 @@
         <v>4.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z13" t="n">
         <v>20.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>96.5</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
         <v>17</v>
@@ -2761,7 +2828,7 @@
         <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
         <v>16</v>
@@ -2770,19 +2837,19 @@
         <v>23</v>
       </c>
       <c r="AL13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM13" t="n">
         <v>18</v>
       </c>
-      <c r="AM13" t="n">
-        <v>17</v>
-      </c>
       <c r="AN13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ13" t="n">
         <v>13</v>
@@ -2797,7 +2864,7 @@
         <v>5</v>
       </c>
       <c r="AU13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV13" t="n">
         <v>14</v>
@@ -2806,7 +2873,7 @@
         <v>28</v>
       </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY13" t="n">
         <v>17</v>
@@ -2815,13 +2882,13 @@
         <v>16</v>
       </c>
       <c r="BA13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -2985,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="AW14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX14" t="n">
         <v>9</v>
@@ -2994,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -3035,25 +3102,25 @@
         <v>62</v>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" t="n">
-        <v>0.274</v>
+        <v>0.258</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J15" t="n">
-        <v>86.09999999999999</v>
+        <v>86.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L15" t="n">
         <v>6.5</v>
@@ -3065,25 +3132,25 @@
         <v>0.343</v>
       </c>
       <c r="O15" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P15" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.744</v>
+        <v>0.743</v>
       </c>
       <c r="R15" t="n">
         <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>32.5</v>
+        <v>32.3</v>
       </c>
       <c r="T15" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
         <v>12.9</v>
@@ -3095,22 +3162,22 @@
         <v>4.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6</v>
+        <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3128,7 +3195,7 @@
         <v>14</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK15" t="n">
         <v>24</v>
@@ -3140,25 +3207,25 @@
         <v>24</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AT15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU15" t="n">
         <v>20</v>
@@ -3170,19 +3237,19 @@
         <v>20</v>
       </c>
       <c r="AX15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY15" t="n">
         <v>11</v>
       </c>
       <c r="AZ15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA15" t="n">
         <v>23</v>
       </c>
       <c r="BB15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3337,7 +3404,7 @@
         <v>21</v>
       </c>
       <c r="AS16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT16" t="n">
         <v>19</v>
@@ -3364,10 +3431,10 @@
         <v>14</v>
       </c>
       <c r="BB16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>-2.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>19</v>
@@ -3495,10 +3562,10 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM17" t="n">
         <v>19</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3671,7 +3738,7 @@
         <v>11</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
         <v>25</v>
@@ -3695,7 +3762,7 @@
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
         <v>24</v>
@@ -3716,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="AX18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY18" t="n">
         <v>14</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-7.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3856,7 +3923,7 @@
         <v>22</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
@@ -3877,7 +3944,7 @@
         <v>2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
@@ -3886,13 +3953,13 @@
         <v>28</v>
       </c>
       <c r="AT19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU19" t="n">
         <v>11</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW19" t="n">
         <v>8</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -3960,40 +4027,40 @@
         <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>82.59999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M20" t="n">
         <v>19.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.364</v>
+        <v>0.359</v>
       </c>
       <c r="O20" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P20" t="n">
-        <v>21.9</v>
+        <v>22.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.772</v>
+        <v>0.765</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
         <v>31.8</v>
       </c>
       <c r="T20" t="n">
-        <v>43.3</v>
+        <v>43.6</v>
       </c>
       <c r="U20" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="V20" t="n">
         <v>13.5</v>
@@ -4002,7 +4069,7 @@
         <v>6.8</v>
       </c>
       <c r="X20" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="Y20" t="n">
         <v>5.8</v>
@@ -4011,10 +4078,10 @@
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC20" t="n">
         <v>0.5</v>
@@ -4041,34 +4108,34 @@
         <v>19</v>
       </c>
       <c r="AK20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL20" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AM20" t="n">
         <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR20" t="n">
         <v>8</v>
       </c>
-      <c r="AR20" t="n">
-        <v>10</v>
-      </c>
       <c r="AS20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -4124,37 +4191,37 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" t="n">
         <v>12</v>
       </c>
       <c r="F21" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" t="n">
-        <v>0.19</v>
+        <v>0.194</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J21" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.43</v>
+        <v>0.431</v>
       </c>
       <c r="L21" t="n">
         <v>6.9</v>
       </c>
       <c r="M21" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N21" t="n">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
       <c r="O21" t="n">
         <v>14.4</v>
@@ -4163,7 +4230,7 @@
         <v>18.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.769</v>
+        <v>0.767</v>
       </c>
       <c r="R21" t="n">
         <v>10.8</v>
@@ -4175,10 +4242,10 @@
         <v>40.4</v>
       </c>
       <c r="U21" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V21" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W21" t="n">
         <v>7.1</v>
@@ -4196,13 +4263,13 @@
         <v>19.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-8.9</v>
+        <v>-9</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4214,7 +4281,7 @@
         <v>30</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
         <v>28</v>
@@ -4226,7 +4293,7 @@
         <v>26</v>
       </c>
       <c r="AL21" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
@@ -4253,7 +4320,7 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV21" t="n">
         <v>17</v>
@@ -4262,7 +4329,7 @@
         <v>23</v>
       </c>
       <c r="AX21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY21" t="n">
         <v>7</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>2.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -4402,7 +4469,7 @@
         <v>7</v>
       </c>
       <c r="AJ22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK22" t="n">
         <v>18</v>
@@ -4423,7 +4490,7 @@
         <v>11</v>
       </c>
       <c r="AQ22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -4506,64 +4573,64 @@
         <v>37.4</v>
       </c>
       <c r="J23" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L23" t="n">
         <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O23" t="n">
         <v>14.2</v>
       </c>
       <c r="P23" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.728</v>
+        <v>0.729</v>
       </c>
       <c r="R23" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T23" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="U23" t="n">
         <v>20.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W23" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AB23" t="n">
         <v>95.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.5</v>
+        <v>-5.3</v>
       </c>
       <c r="AD23" t="n">
         <v>5</v>
@@ -4587,7 +4654,7 @@
         <v>24</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL23" t="n">
         <v>22</v>
@@ -4596,7 +4663,7 @@
         <v>22</v>
       </c>
       <c r="AN23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4611,28 +4678,28 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AT23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU23" t="n">
         <v>26</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW23" t="n">
         <v>16</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-10.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4781,7 +4848,7 @@
         <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
         <v>10</v>
@@ -4790,7 +4857,7 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4808,13 +4875,13 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY24" t="n">
         <v>25</v>
       </c>
       <c r="AZ24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>0.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4951,7 +5018,7 @@
         <v>4</v>
       </c>
       <c r="AK25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL25" t="n">
         <v>8</v>
@@ -4966,13 +5033,13 @@
         <v>14</v>
       </c>
       <c r="AP25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ25" t="n">
         <v>6</v>
       </c>
       <c r="AR25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS25" t="n">
         <v>17</v>
@@ -4990,7 +5057,7 @@
         <v>5</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
@@ -4999,13 +5066,13 @@
         <v>27</v>
       </c>
       <c r="BA25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB25" t="n">
         <v>3</v>
       </c>
       <c r="BC25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5</v>
       </c>
       <c r="AD26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE26" t="n">
         <v>5</v>
@@ -5142,7 +5209,7 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO26" t="n">
         <v>25</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5306,10 +5373,10 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -5416,43 +5483,43 @@
         <v>38.2</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L28" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.363</v>
+        <v>0.362</v>
       </c>
       <c r="O28" t="n">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
       <c r="P28" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="Q28" t="n">
         <v>0.772</v>
       </c>
       <c r="R28" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T28" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U28" t="n">
         <v>23.9</v>
       </c>
       <c r="V28" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W28" t="n">
         <v>7.8</v>
@@ -5467,16 +5534,16 @@
         <v>19.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.6</v>
+        <v>101.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="n">
         <v>9</v>
@@ -5497,7 +5564,7 @@
         <v>14</v>
       </c>
       <c r="AK28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5506,34 +5573,34 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS28" t="n">
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX28" t="n">
         <v>7</v>
@@ -5545,13 +5612,13 @@
         <v>10</v>
       </c>
       <c r="BA28" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BB28" t="n">
         <v>11</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" t="n">
         <v>38</v>
       </c>
       <c r="F29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29" t="n">
-        <v>0.594</v>
+        <v>0.603</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J29" t="n">
-        <v>84.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K29" t="n">
         <v>0.453</v>
@@ -5610,31 +5677,31 @@
         <v>25.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O29" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="P29" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.785</v>
+        <v>0.786</v>
       </c>
       <c r="R29" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S29" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T29" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U29" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V29" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W29" t="n">
         <v>7.8</v>
@@ -5643,34 +5710,34 @@
         <v>4.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z29" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
       </c>
       <c r="AF29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH29" t="n">
         <v>11</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>13</v>
       </c>
       <c r="AI29" t="n">
         <v>9</v>
@@ -5700,7 +5767,7 @@
         <v>3</v>
       </c>
       <c r="AR29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
@@ -5709,28 +5776,28 @@
         <v>25</v>
       </c>
       <c r="AU29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV29" t="n">
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ29" t="n">
         <v>20</v>
       </c>
-      <c r="AY29" t="n">
-        <v>20</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>21</v>
-      </c>
       <c r="BA29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -5762,25 +5829,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" t="n">
         <v>36</v>
       </c>
       <c r="G30" t="n">
-        <v>0.429</v>
+        <v>0.419</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J30" t="n">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K30" t="n">
         <v>0.449</v>
@@ -5798,13 +5865,13 @@
         <v>16.9</v>
       </c>
       <c r="P30" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q30" t="n">
         <v>0.732</v>
       </c>
       <c r="R30" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S30" t="n">
         <v>31.8</v>
@@ -5813,7 +5880,7 @@
         <v>43.6</v>
       </c>
       <c r="U30" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V30" t="n">
         <v>15.4</v>
@@ -5822,7 +5889,7 @@
         <v>7.3</v>
       </c>
       <c r="X30" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y30" t="n">
         <v>4.8</v>
@@ -5831,16 +5898,16 @@
         <v>19</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>95</v>
+        <v>95.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AE30" t="n">
         <v>20</v>
@@ -5867,13 +5934,13 @@
         <v>17</v>
       </c>
       <c r="AM30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN30" t="n">
         <v>18</v>
       </c>
-      <c r="AN30" t="n">
-        <v>17</v>
-      </c>
       <c r="AO30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP30" t="n">
         <v>15</v>
@@ -5885,10 +5952,10 @@
         <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU30" t="n">
         <v>28</v>
@@ -5897,10 +5964,10 @@
         <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
         <v>16</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
@@ -6034,7 +6101,7 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
@@ -6052,7 +6119,7 @@
         <v>27</v>
       </c>
       <c r="AN31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO31" t="n">
         <v>27</v>
@@ -6079,7 +6146,7 @@
         <v>24</v>
       </c>
       <c r="AW31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX31" t="n">
         <v>17</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-10-2014-15</t>
+          <t>2015-03-10</t>
         </is>
       </c>
     </row>
